--- a/pred_ohlcv/54_21/2020-01-26 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ADA ohlcv.xlsx
@@ -1016,7 +1016,7 @@
         <v>39929.78670794009</v>
       </c>
       <c r="H24">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="25" spans="1:8">
@@ -1042,7 +1042,7 @@
         <v>-34771.37359205991</v>
       </c>
       <c r="H25">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-34771.37359205991</v>
       </c>
       <c r="H26">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>68779.68130794009</v>
       </c>
       <c r="H27">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>68937.37890794009</v>
       </c>
       <c r="H28">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>97506.07560794009</v>
       </c>
       <c r="H29">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9088.702707940087</v>
       </c>
       <c r="H31">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6911.494307940087</v>
       </c>
       <c r="H32">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>957.7386079400876</v>
       </c>
       <c r="H33">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-970.0251920599123</v>
       </c>
       <c r="H34">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>278.7552079400878</v>
       </c>
       <c r="H35">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-96585.45369205991</v>
       </c>
       <c r="H36">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-56635.45369205991</v>
       </c>
       <c r="H37">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-56620.82139205991</v>
       </c>
       <c r="H38">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-46548.6181920599</v>
       </c>
       <c r="H39">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1432,7 +1432,7 @@
         <v>-46533.5873920599</v>
       </c>
       <c r="H40">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-51535.99049205991</v>
       </c>
       <c r="H41">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1484,7 +1484,7 @@
         <v>-51535.99049205991</v>
       </c>
       <c r="H42">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:8">
@@ -1510,7 +1510,7 @@
         <v>-51522.43109205991</v>
       </c>
       <c r="H43">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:8">
@@ -1588,7 +1588,7 @@
         <v>-222519.9445920599</v>
       </c>
       <c r="H46">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H101">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-166026.6235613399</v>
       </c>
       <c r="H102">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-214583.6043613399</v>
       </c>
       <c r="H103">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-92149.83366133992</v>
       </c>
       <c r="H104">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-233987.9776613399</v>
       </c>
       <c r="H105">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1574042.84199104</v>
       </c>
       <c r="H251">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1573869.95949104</v>
       </c>
       <c r="H252">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1576477.08299104</v>
       </c>
       <c r="H254">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1788330.19899104</v>
       </c>
       <c r="H255">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1739671.69679104</v>
       </c>
       <c r="H277">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="278" spans="1:8">

--- a/pred_ohlcv/54_21/2020-01-26 ADA ohlcv.xlsx
+++ b/pred_ohlcv/54_21/2020-01-26 ADA ohlcv.xlsx
@@ -678,7 +678,7 @@
         <v>-49694.93569205991</v>
       </c>
       <c r="H11">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="12" spans="1:8">
@@ -704,7 +704,7 @@
         <v>-49684.93569205991</v>
       </c>
       <c r="H12">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="13" spans="1:8">
@@ -730,7 +730,7 @@
         <v>-49736.59059205991</v>
       </c>
       <c r="H13">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="14" spans="1:8">
@@ -756,7 +756,7 @@
         <v>45513.40940794009</v>
       </c>
       <c r="H14">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="15" spans="1:8">
@@ -782,7 +782,7 @@
         <v>38437.62070794009</v>
       </c>
       <c r="H15">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:8">
@@ -886,7 +886,7 @@
         <v>35673.68270794009</v>
       </c>
       <c r="H19">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="20" spans="1:8">
@@ -912,7 +912,7 @@
         <v>35375.99310794009</v>
       </c>
       <c r="H20">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="21" spans="1:8">
@@ -938,7 +938,7 @@
         <v>43375.99310794009</v>
       </c>
       <c r="H21">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="22" spans="1:8">
@@ -964,7 +964,7 @@
         <v>41654.54440794009</v>
       </c>
       <c r="H22">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="23" spans="1:8">
@@ -990,7 +990,7 @@
         <v>39929.78670794009</v>
       </c>
       <c r="H23">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="24" spans="1:8">
@@ -1068,7 +1068,7 @@
         <v>-34771.37359205991</v>
       </c>
       <c r="H26">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="27" spans="1:8">
@@ -1094,7 +1094,7 @@
         <v>68779.68130794009</v>
       </c>
       <c r="H27">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="28" spans="1:8">
@@ -1120,7 +1120,7 @@
         <v>68937.37890794009</v>
       </c>
       <c r="H28">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:8">
@@ -1146,7 +1146,7 @@
         <v>97506.07560794009</v>
       </c>
       <c r="H29">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:8">
@@ -1172,7 +1172,7 @@
         <v>77928.72980794009</v>
       </c>
       <c r="H30">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="31" spans="1:8">
@@ -1198,7 +1198,7 @@
         <v>9088.702707940087</v>
       </c>
       <c r="H31">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="32" spans="1:8">
@@ -1224,7 +1224,7 @@
         <v>6911.494307940087</v>
       </c>
       <c r="H32">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="33" spans="1:8">
@@ -1250,7 +1250,7 @@
         <v>957.7386079400876</v>
       </c>
       <c r="H33">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="34" spans="1:8">
@@ -1276,7 +1276,7 @@
         <v>-970.0251920599123</v>
       </c>
       <c r="H34">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="35" spans="1:8">
@@ -1302,7 +1302,7 @@
         <v>278.7552079400878</v>
       </c>
       <c r="H35">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="36" spans="1:8">
@@ -1328,7 +1328,7 @@
         <v>-96585.45369205991</v>
       </c>
       <c r="H36">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="37" spans="1:8">
@@ -1354,7 +1354,7 @@
         <v>-56635.45369205991</v>
       </c>
       <c r="H37">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="38" spans="1:8">
@@ -1380,7 +1380,7 @@
         <v>-56620.82139205991</v>
       </c>
       <c r="H38">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="39" spans="1:8">
@@ -1406,7 +1406,7 @@
         <v>-46548.6181920599</v>
       </c>
       <c r="H39">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="40" spans="1:8">
@@ -1458,7 +1458,7 @@
         <v>-51535.99049205991</v>
       </c>
       <c r="H41">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="42" spans="1:8">
@@ -1770,7 +1770,7 @@
         <v>-259313.0554920599</v>
       </c>
       <c r="H53">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="54" spans="1:8">
@@ -2602,7 +2602,7 @@
         <v>-217000.2988920599</v>
       </c>
       <c r="H85">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="86" spans="1:8">
@@ -2654,7 +2654,7 @@
         <v>-267633.1562920599</v>
       </c>
       <c r="H87">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="88" spans="1:8">
@@ -2680,7 +2680,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H88">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="89" spans="1:8">
@@ -2706,7 +2706,7 @@
         <v>-267147.7236733799</v>
       </c>
       <c r="H89">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="90" spans="1:8">
@@ -2732,7 +2732,7 @@
         <v>-267247.7236733799</v>
       </c>
       <c r="H90">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="91" spans="1:8">
@@ -2758,7 +2758,7 @@
         <v>-246959.9870733799</v>
       </c>
       <c r="H91">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="92" spans="1:8">
@@ -2810,7 +2810,7 @@
         <v>-33095.18997337992</v>
       </c>
       <c r="H93">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="94" spans="1:8">
@@ -2836,7 +2836,7 @@
         <v>-33062.18806133992</v>
       </c>
       <c r="H94">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="95" spans="1:8">
@@ -2862,7 +2862,7 @@
         <v>-51354.32626133992</v>
       </c>
       <c r="H95">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="96" spans="1:8">
@@ -2888,7 +2888,7 @@
         <v>-182692.0035613399</v>
       </c>
       <c r="H96">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="97" spans="1:8">
@@ -2914,7 +2914,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H97">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="98" spans="1:8">
@@ -2940,7 +2940,7 @@
         <v>-180752.4231613399</v>
       </c>
       <c r="H98">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="99" spans="1:8">
@@ -2966,7 +2966,7 @@
         <v>-164788.5827613399</v>
       </c>
       <c r="H99">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="100" spans="1:8">
@@ -2992,7 +2992,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H100">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="101" spans="1:8">
@@ -3018,7 +3018,7 @@
         <v>-161256.0905613399</v>
       </c>
       <c r="H101">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="102" spans="1:8">
@@ -3044,7 +3044,7 @@
         <v>-166026.6235613399</v>
       </c>
       <c r="H102">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="103" spans="1:8">
@@ -3070,7 +3070,7 @@
         <v>-214583.6043613399</v>
       </c>
       <c r="H103">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="104" spans="1:8">
@@ -3096,7 +3096,7 @@
         <v>-92149.83366133992</v>
       </c>
       <c r="H104">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="105" spans="1:8">
@@ -3122,7 +3122,7 @@
         <v>-233987.9776613399</v>
       </c>
       <c r="H105">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="106" spans="1:8">
@@ -3148,7 +3148,7 @@
         <v>-279750.7261613399</v>
       </c>
       <c r="H106">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="107" spans="1:8">
@@ -3174,7 +3174,7 @@
         <v>-430039.3100613399</v>
       </c>
       <c r="H107">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="108" spans="1:8">
@@ -3200,7 +3200,7 @@
         <v>-425839.3101613399</v>
       </c>
       <c r="H108">
-        <v>0</v>
+        <v>2</v>
       </c>
     </row>
     <row r="109" spans="1:8">
@@ -6918,7 +6918,7 @@
         <v>-1574042.84199104</v>
       </c>
       <c r="H251">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="252" spans="1:8">
@@ -6944,7 +6944,7 @@
         <v>-1573869.95949104</v>
       </c>
       <c r="H252">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="253" spans="1:8">
@@ -6996,7 +6996,7 @@
         <v>-1576477.08299104</v>
       </c>
       <c r="H254">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="255" spans="1:8">
@@ -7022,7 +7022,7 @@
         <v>-1788330.19899104</v>
       </c>
       <c r="H255">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="256" spans="1:8">
@@ -7308,7 +7308,7 @@
         <v>-1783210.26019104</v>
       </c>
       <c r="H266">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="267" spans="1:8">
@@ -7334,7 +7334,7 @@
         <v>-1783210.26019104</v>
       </c>
       <c r="H267">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="268" spans="1:8">
@@ -7412,7 +7412,7 @@
         <v>-1750796.05729104</v>
       </c>
       <c r="H270">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="271" spans="1:8">
@@ -7438,7 +7438,7 @@
         <v>-1800796.05729104</v>
       </c>
       <c r="H271">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="272" spans="1:8">
@@ -7464,7 +7464,7 @@
         <v>-1760796.05729104</v>
       </c>
       <c r="H272">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="273" spans="1:8">
@@ -7594,7 +7594,7 @@
         <v>-1739671.69679104</v>
       </c>
       <c r="H277">
-        <v>0</v>
+        <v>1</v>
       </c>
     </row>
     <row r="278" spans="1:8">
